--- a/TecnicoConsulta.xlsx
+++ b/TecnicoConsulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E782128-439D-4B1F-9FD8-5C3AE87B1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D78EA-015C-484E-85C4-5E129FA177E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EF286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q286"/>
+    <sheetView tabSelected="1" topLeftCell="K268" workbookViewId="0">
+      <selection activeCell="Q286" sqref="Q286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TecnicoConsulta.xlsx
+++ b/TecnicoConsulta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D78EA-015C-484E-85C4-5E129FA177E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD11CD-732F-47BB-BD2B-CF6593E23CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10548" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10568" uniqueCount="510">
   <si>
     <t>ID</t>
   </si>
@@ -1597,6 +1597,9 @@
   <si>
     <t>Funcionamento Teams</t>
   </si>
+  <si>
+    <t>Não sei responder</t>
+  </si>
 </sst>
 </file>
 
@@ -1642,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1650,6 +1653,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2520,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EF286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K268" workbookViewId="0">
-      <selection activeCell="Q286" sqref="Q286"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AR144" sqref="AR144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8710,8 +8716,8 @@
         <v>4</v>
       </c>
       <c r="AM33" s="2"/>
-      <c r="AN33" s="2">
-        <v>1</v>
+      <c r="AN33" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2">
@@ -12247,8 +12253,8 @@
         <v>3</v>
       </c>
       <c r="AP52" s="2"/>
-      <c r="AQ52" s="2">
-        <v>1</v>
+      <c r="AQ52" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2" t="s">
@@ -18519,8 +18525,8 @@
         <v>2</v>
       </c>
       <c r="AP86" s="2"/>
-      <c r="AQ86" s="2">
-        <v>1</v>
+      <c r="AQ86" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AS86" s="2"/>
       <c r="AT86" s="2" t="s">
@@ -29209,8 +29215,8 @@
         <v>3</v>
       </c>
       <c r="AG144" s="2"/>
-      <c r="AH144" s="2">
-        <v>1</v>
+      <c r="AH144" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AJ144" s="2"/>
       <c r="AK144" s="2">
@@ -29221,8 +29227,8 @@
         <v>3</v>
       </c>
       <c r="AP144" s="2"/>
-      <c r="AQ144" s="2">
-        <v>1</v>
+      <c r="AQ144" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AS144" s="2"/>
       <c r="AT144" s="2" t="s">
@@ -30127,12 +30133,12 @@
         <v>1</v>
       </c>
       <c r="AG149" s="2"/>
-      <c r="AH149" s="2">
-        <v>1</v>
+      <c r="AH149" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AJ149" s="2"/>
-      <c r="AK149" s="2">
-        <v>1</v>
+      <c r="AK149" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AM149" s="2"/>
       <c r="AN149" s="2">
@@ -34668,8 +34674,8 @@
         <v>4</v>
       </c>
       <c r="AG174" s="2"/>
-      <c r="AH174" s="2">
-        <v>1</v>
+      <c r="AH174" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AJ174" s="2"/>
       <c r="AK174" s="2">
@@ -37083,8 +37089,8 @@
         <v>2</v>
       </c>
       <c r="AJ187" s="2"/>
-      <c r="AK187" s="2">
-        <v>1</v>
+      <c r="AK187" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AM187" s="2"/>
       <c r="AN187" s="2">
@@ -38199,8 +38205,8 @@
         <v>3</v>
       </c>
       <c r="AP193" s="2"/>
-      <c r="AQ193" s="2">
-        <v>1</v>
+      <c r="AQ193" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AS193" s="2"/>
       <c r="AT193" s="2" t="s">
@@ -40041,8 +40047,8 @@
         <v>1</v>
       </c>
       <c r="AJ203" s="2"/>
-      <c r="AK203" s="2">
-        <v>1</v>
+      <c r="AK203" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AM203" s="2"/>
       <c r="AN203" s="2">
@@ -41119,8 +41125,8 @@
         <v>2</v>
       </c>
       <c r="AP209" s="2"/>
-      <c r="AQ209" s="2">
-        <v>1</v>
+      <c r="AQ209" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AS209" s="2"/>
       <c r="AT209" s="2" t="s">
@@ -42201,7 +42207,9 @@
       </c>
       <c r="AB215" s="2"/>
       <c r="AD215" s="2"/>
-      <c r="AE215" s="2"/>
+      <c r="AE215" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="AG215" s="2"/>
       <c r="AH215" s="2">
         <v>4</v>
@@ -42764,8 +42772,8 @@
         <v>4</v>
       </c>
       <c r="AM218" s="2"/>
-      <c r="AN218" s="2">
-        <v>1</v>
+      <c r="AN218" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AP218" s="2"/>
       <c r="AQ218" s="2">
@@ -43864,7 +43872,9 @@
         <v>1</v>
       </c>
       <c r="AM224" s="2"/>
-      <c r="AN224" s="2"/>
+      <c r="AN224" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="AP224" s="2"/>
       <c r="AQ224" s="2">
         <v>1</v>
@@ -45712,7 +45722,9 @@
         <v>4</v>
       </c>
       <c r="AJ234" s="2"/>
-      <c r="AK234" s="2"/>
+      <c r="AK234" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="AM234" s="2"/>
       <c r="AN234" s="2">
         <v>4</v>
@@ -53859,8 +53871,8 @@
         <v>3</v>
       </c>
       <c r="AP278" s="2"/>
-      <c r="AQ278" s="2">
-        <v>1</v>
+      <c r="AQ278" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="AS278" s="2"/>
       <c r="AT278" s="2" t="s">
@@ -55316,13 +55328,19 @@
       <c r="AB286" s="2"/>
       <c r="AC286" s="2"/>
       <c r="AD286" s="2"/>
-      <c r="AE286" s="2"/>
+      <c r="AE286" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="AF286" s="2"/>
       <c r="AG286" s="2"/>
-      <c r="AH286" s="2"/>
+      <c r="AH286" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="AI286" s="2"/>
       <c r="AJ286" s="2"/>
-      <c r="AK286" s="2"/>
+      <c r="AK286" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="AL286" s="2"/>
       <c r="AM286" s="2"/>
       <c r="AN286" s="2">

--- a/TecnicoConsulta.xlsx
+++ b/TecnicoConsulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD11CD-732F-47BB-BD2B-CF6593E23CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D7CBD-DEFE-42CE-9BC9-FEF1EC87931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EF286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AR144" sqref="AR144"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
